--- a/Data/unicorn_cb_23_dec_16.xlsx
+++ b/Data/unicorn_cb_23_dec_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\OneDrive\Documents\GitHub\Trabajo_Final\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{EBD6D46B-75D8-4F00-96AC-774B1F14143E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F526C26B-8564-4F3F-BB83-A05D6DF16F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Recovered_Sheet1!$A$1:$F$184</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="653">
   <si>
     <t>Company</t>
   </si>
@@ -2501,12 +2500,12 @@
   <dimension ref="A1:F184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2526,7 +2525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2546,7 +2545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2586,7 +2585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2606,7 +2605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2626,7 +2625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2646,7 +2645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2666,7 +2665,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -2686,7 +2685,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -2706,12 +2705,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="2">
-        <v>11</v>
+      <c r="B11" t="s">
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>51</v>
@@ -2726,7 +2725,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2746,7 +2745,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -2766,12 +2765,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="2">
-        <v>10</v>
+      <c r="B14" t="s">
+        <v>68</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
@@ -2786,7 +2785,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -2806,12 +2805,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="2">
-        <v>10</v>
+      <c r="B16" t="s">
+        <v>68</v>
       </c>
       <c r="C16" t="s">
         <v>72</v>
@@ -2826,7 +2825,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -2866,7 +2865,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -2886,7 +2885,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -2906,7 +2905,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -2926,7 +2925,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -2946,7 +2945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -2966,7 +2965,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -2986,7 +2985,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -3006,7 +3005,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -3026,7 +3025,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>117</v>
       </c>
@@ -3046,7 +3045,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -3066,7 +3065,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>125</v>
       </c>
@@ -3086,7 +3085,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>129</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>133</v>
       </c>
@@ -3126,7 +3125,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -3146,7 +3145,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -3166,7 +3165,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -3186,7 +3185,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>149</v>
       </c>
@@ -3206,7 +3205,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -3226,7 +3225,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>159</v>
       </c>
@@ -3246,7 +3245,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -3266,7 +3265,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>167</v>
       </c>
@@ -3286,7 +3285,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>170</v>
       </c>
@@ -3306,7 +3305,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -3326,7 +3325,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>177</v>
       </c>
@@ -3346,7 +3345,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>180</v>
       </c>
@@ -3366,7 +3365,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>183</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>186</v>
       </c>
@@ -3406,7 +3405,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>189</v>
       </c>
@@ -3426,7 +3425,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>193</v>
       </c>
@@ -3446,7 +3445,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>197</v>
       </c>
@@ -3466,7 +3465,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>201</v>
       </c>
@@ -3486,7 +3485,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>206</v>
       </c>
@@ -3506,7 +3505,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>211</v>
       </c>
@@ -3526,7 +3525,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>214</v>
       </c>
@@ -3546,7 +3545,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>222</v>
       </c>
@@ -3586,7 +3585,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -3606,7 +3605,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>230</v>
       </c>
@@ -3626,7 +3625,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>232</v>
       </c>
@@ -3646,7 +3645,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>235</v>
       </c>
@@ -3666,7 +3665,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>238</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>241</v>
       </c>
@@ -3706,7 +3705,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>244</v>
       </c>
@@ -3726,7 +3725,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>248</v>
       </c>
@@ -3746,7 +3745,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>251</v>
       </c>
@@ -3766,7 +3765,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>254</v>
       </c>
@@ -3786,7 +3785,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>257</v>
       </c>
@@ -3806,7 +3805,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>260</v>
       </c>
@@ -3826,7 +3825,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -3846,7 +3845,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>267</v>
       </c>
@@ -3866,7 +3865,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>269</v>
       </c>
@@ -3886,7 +3885,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>274</v>
       </c>
@@ -3906,7 +3905,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>278</v>
       </c>
@@ -3926,7 +3925,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>281</v>
       </c>
@@ -3946,7 +3945,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>285</v>
       </c>
@@ -3966,7 +3965,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>289</v>
       </c>
@@ -3986,7 +3985,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>293</v>
       </c>
@@ -4006,7 +4005,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>296</v>
       </c>
@@ -4026,7 +4025,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>301</v>
       </c>
@@ -4046,7 +4045,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>307</v>
       </c>
@@ -4066,7 +4065,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>311</v>
       </c>
@@ -4086,7 +4085,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>314</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>318</v>
       </c>
@@ -4126,7 +4125,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>321</v>
       </c>
@@ -4146,7 +4145,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>325</v>
       </c>
@@ -4166,7 +4165,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>328</v>
       </c>
@@ -4186,7 +4185,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>331</v>
       </c>
@@ -4206,7 +4205,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>334</v>
       </c>
@@ -4226,7 +4225,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>337</v>
       </c>
@@ -4246,7 +4245,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>340</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>344</v>
       </c>
@@ -4286,7 +4285,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>349</v>
       </c>
@@ -4306,7 +4305,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>352</v>
       </c>
@@ -4326,7 +4325,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>356</v>
       </c>
@@ -4346,7 +4345,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>359</v>
       </c>
@@ -4366,7 +4365,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>363</v>
       </c>
@@ -4386,7 +4385,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>366</v>
       </c>
@@ -4406,7 +4405,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>370</v>
       </c>
@@ -4426,7 +4425,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>374</v>
       </c>
@@ -4446,7 +4445,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>378</v>
       </c>
@@ -4466,7 +4465,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>381</v>
       </c>
@@ -4486,7 +4485,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>384</v>
       </c>
@@ -4506,7 +4505,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>388</v>
       </c>
@@ -4526,7 +4525,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>391</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>394</v>
       </c>
@@ -4566,7 +4565,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>397</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>400</v>
       </c>
@@ -4606,7 +4605,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>403</v>
       </c>
@@ -4626,7 +4625,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>406</v>
       </c>
@@ -4646,7 +4645,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>410</v>
       </c>
@@ -4666,7 +4665,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>414</v>
       </c>
@@ -4686,7 +4685,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>417</v>
       </c>
@@ -4706,7 +4705,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>420</v>
       </c>
@@ -4726,7 +4725,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>423</v>
       </c>
@@ -4746,7 +4745,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>426</v>
       </c>
@@ -4766,7 +4765,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>429</v>
       </c>
@@ -4786,7 +4785,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>431</v>
       </c>
@@ -4806,7 +4805,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>434</v>
       </c>
@@ -4826,7 +4825,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>437</v>
       </c>
@@ -4846,7 +4845,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>439</v>
       </c>
@@ -4866,7 +4865,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>443</v>
       </c>
@@ -4886,7 +4885,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>446</v>
       </c>
@@ -4906,7 +4905,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>451</v>
       </c>
@@ -4926,7 +4925,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>454</v>
       </c>
@@ -4946,7 +4945,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>459</v>
       </c>
@@ -4966,7 +4965,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>462</v>
       </c>
@@ -4986,7 +4985,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>467</v>
       </c>
@@ -5006,7 +5005,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>471</v>
       </c>
@@ -5026,7 +5025,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>474</v>
       </c>
@@ -5046,7 +5045,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>478</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>481</v>
       </c>
@@ -5086,7 +5085,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>484</v>
       </c>
@@ -5106,7 +5105,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>486</v>
       </c>
@@ -5126,7 +5125,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>489</v>
       </c>
@@ -5146,7 +5145,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>492</v>
       </c>
@@ -5166,7 +5165,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>495</v>
       </c>
@@ -5186,7 +5185,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>497</v>
       </c>
@@ -5206,7 +5205,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>500</v>
       </c>
@@ -5226,7 +5225,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>504</v>
       </c>
@@ -5246,7 +5245,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>507</v>
       </c>
@@ -5266,7 +5265,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>510</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>514</v>
       </c>
@@ -5306,7 +5305,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>517</v>
       </c>
@@ -5326,7 +5325,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>520</v>
       </c>
@@ -5346,7 +5345,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>523</v>
       </c>
@@ -5366,7 +5365,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>525</v>
       </c>
@@ -5386,7 +5385,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>528</v>
       </c>
@@ -5406,7 +5405,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>531</v>
       </c>
@@ -5426,7 +5425,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>534</v>
       </c>
@@ -5446,7 +5445,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>537</v>
       </c>
@@ -5466,7 +5465,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>540</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>543</v>
       </c>
@@ -5506,7 +5505,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>546</v>
       </c>
@@ -5526,7 +5525,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>549</v>
       </c>
@@ -5546,7 +5545,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>551</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>555</v>
       </c>
@@ -5586,7 +5585,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>557</v>
       </c>
@@ -5606,7 +5605,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>560</v>
       </c>
@@ -5626,7 +5625,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>563</v>
       </c>
@@ -5646,7 +5645,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>566</v>
       </c>
@@ -5666,7 +5665,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>568</v>
       </c>
@@ -5686,7 +5685,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>571</v>
       </c>
@@ -5706,7 +5705,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>573</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>576</v>
       </c>
@@ -5746,7 +5745,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>578</v>
       </c>
@@ -5766,7 +5765,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>582</v>
       </c>
@@ -5786,7 +5785,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>585</v>
       </c>
@@ -5806,7 +5805,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>588</v>
       </c>
@@ -5826,7 +5825,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>592</v>
       </c>
@@ -5846,7 +5845,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>595</v>
       </c>
@@ -5866,7 +5865,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>599</v>
       </c>
@@ -5886,7 +5885,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>602</v>
       </c>
@@ -5906,7 +5905,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>606</v>
       </c>
@@ -5926,7 +5925,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>608</v>
       </c>
@@ -5946,7 +5945,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>611</v>
       </c>
@@ -5966,7 +5965,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>614</v>
       </c>
@@ -5986,7 +5985,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>618</v>
       </c>
@@ -6006,7 +6005,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>621</v>
       </c>
@@ -6026,7 +6025,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>624</v>
       </c>
@@ -6046,7 +6045,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>627</v>
       </c>
@@ -6066,7 +6065,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>630</v>
       </c>
@@ -6086,7 +6085,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>633</v>
       </c>
@@ -6106,7 +6105,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>637</v>
       </c>
@@ -6126,7 +6125,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>640</v>
       </c>
@@ -6146,7 +6145,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>643</v>
       </c>
@@ -6166,7 +6165,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>646</v>
       </c>
@@ -6197,7 +6196,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
